--- a/Example- Demo/5US Platform/Linked Parameters.xlsx
+++ b/Example- Demo/5US Platform/Linked Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshel\Documents\GitHub\5ss-platform-synthesis\Example- Demo\5US Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC34BAD-8204-46CF-9305-F152CB1670DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B653D-599F-46BA-BB60-878760ADD61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B1">
         <f>E2</f>
-        <v>-0.993892</v>
+        <v>0.500274</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -491,37 +491,37 @@
       </c>
       <c r="B2">
         <f>F2</f>
-        <v>-10.4641</v>
+        <v>-9.0432000000000006</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.993892</v>
+        <v>0.500274</v>
       </c>
       <c r="F2" s="1">
-        <v>-10.4641</v>
+        <v>-9.0432000000000006</v>
       </c>
       <c r="G2" s="1">
-        <v>4.9982300000000004</v>
+        <v>3.6986699999999999</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1.24563</v>
+        <v>-3.6908300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>-11.8165</v>
+        <v>3.6051000000000002</v>
       </c>
       <c r="K2" s="1">
-        <v>0.20905099999999999</v>
+        <v>0.72284099999999996</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>12.278600000000001</v>
+        <v>11.091799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -530,37 +530,37 @@
       </c>
       <c r="B3">
         <f xml:space="preserve"> G2</f>
-        <v>4.9982300000000004</v>
+        <v>3.6986699999999999</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="1">
-        <v>9.8562399999999997</v>
+        <v>-4.99892</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.91225199999999995</v>
+        <v>0.78441399999999994</v>
       </c>
       <c r="G3" s="1">
-        <v>1.52271</v>
+        <v>-0.92289299999999996</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>1.9200900000000001</v>
+        <v>4.8814500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.725383</v>
+        <v>-1.55169</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.18651799999999999</v>
+        <v>-5.5954300000000003</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>12.286199999999999</v>
+        <v>11.990399999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -569,37 +569,37 @@
       </c>
       <c r="B4">
         <f>E3</f>
-        <v>9.8562399999999997</v>
+        <v>-4.99892</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1">
-        <v>-7.0630300000000004</v>
+        <v>-9.9663699999999995</v>
       </c>
       <c r="F4" s="1">
-        <v>-14.387</v>
+        <v>-12.953900000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>7.6902100000000004</v>
+        <v>14.0451</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>-2.28999</v>
+        <v>-7.3979299999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>-9.6036000000000001</v>
+        <v>0.53811799999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>-2.46123E-2</v>
+        <v>7.1681400000000002</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>17.1235</v>
+        <v>15.4573</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -608,37 +608,37 @@
       </c>
       <c r="B5">
         <f>F3</f>
-        <v>-0.91225199999999995</v>
+        <v>0.78441399999999994</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="1">
-        <v>-12.061299999999999</v>
+        <v>15.7575</v>
       </c>
       <c r="F5" s="1">
-        <v>12.913399999999999</v>
+        <v>-0.714453</v>
       </c>
       <c r="G5" s="1">
-        <v>4.8788900000000002</v>
+        <v>4.7959800000000001</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>13.082800000000001</v>
+        <v>0.68991400000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>-2.4093800000000001</v>
+        <v>-4.21556</v>
       </c>
       <c r="K5" s="1">
-        <v>-1.5715699999999999</v>
+        <v>1.69537</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>25.117699999999999</v>
+        <v>18.860199999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -647,37 +647,37 @@
       </c>
       <c r="B6">
         <f>G3</f>
-        <v>1.52271</v>
+        <v>-0.92289299999999996</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1">
-        <v>-8.8071099999999998</v>
+        <v>3.1288499999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>6.7997800000000002</v>
+        <v>-7.0232900000000003</v>
       </c>
       <c r="G6" s="1">
-        <v>-2.4452099999999999</v>
+        <v>14.568</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>22.874700000000001</v>
+        <v>-2.8578199999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>-1.5944700000000001</v>
+        <v>-16.145800000000001</v>
       </c>
       <c r="K6" s="1">
-        <v>-5.2618</v>
+        <v>14.116300000000001</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>27.831199999999999</v>
+        <v>20.834900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -686,7 +686,7 @@
       </c>
       <c r="B7">
         <f>E4</f>
-        <v>-7.0630300000000004</v>
+        <v>-9.9663699999999995</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="B8">
         <f>F4</f>
-        <v>-14.387</v>
+        <v>-12.953900000000001</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="B9">
         <f>G4</f>
-        <v>7.6902100000000004</v>
+        <v>14.0451</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="B10">
         <f>E5</f>
-        <v>-12.061299999999999</v>
+        <v>15.7575</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="B11">
         <f>F5</f>
-        <v>12.913399999999999</v>
+        <v>-0.714453</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="B12">
         <f>G5</f>
-        <v>4.8788900000000002</v>
+        <v>4.7959800000000001</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13">
         <f>E6</f>
-        <v>-8.8071099999999998</v>
+        <v>3.1288499999999999</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -833,7 +833,7 @@
       </c>
       <c r="B14">
         <f>F6</f>
-        <v>6.7997800000000002</v>
+        <v>-7.0232900000000003</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="B15">
         <f>G6</f>
-        <v>-2.4452099999999999</v>
+        <v>14.568</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="B16">
         <f>M2</f>
-        <v>12.278600000000001</v>
+        <v>11.091799999999999</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="B17">
         <f>M3</f>
-        <v>12.286199999999999</v>
+        <v>11.990399999999999</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="B18">
         <f>M4</f>
-        <v>17.1235</v>
+        <v>15.4573</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="B19">
         <f>M5</f>
-        <v>25.117699999999999</v>
+        <v>18.860199999999999</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="B20">
         <f>M6</f>
-        <v>27.831199999999999</v>
+        <v>20.834900000000001</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
